--- a/DA/cap08-BasesDeDatos/IPT_ACRM_BD5_Ofertas_150414.xlsx
+++ b/DA/cap08-BasesDeDatos/IPT_ACRM_BD5_Ofertas_150414.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
-  <si>
-    <t>FECHAS OFERTAS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
   <si>
     <t>Creation date</t>
   </si>
@@ -77,9 +74,6 @@
 (delivery milestones)</t>
   </si>
   <si>
-    <t>Ordering date</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>(Producto: Cristina Medrano; Repuesto:Eduardo Cordovín)</t>
   </si>
   <si>
-    <t>Día esperado para crear el pedido. Se convierte en real al crear un pedido. Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flag. </t>
-  </si>
-  <si>
     <t>Cadena de texto</t>
   </si>
   <si>
@@ -153,6 +141,353 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>DATOS DE LA OFERTA</t>
+  </si>
+  <si>
+    <t>Project name</t>
+  </si>
+  <si>
+    <t># Oferta en SAP</t>
+  </si>
+  <si>
+    <t>KAM</t>
+  </si>
+  <si>
+    <t>tiene que aprobar la oferta</t>
+  </si>
+  <si>
+    <t>Technical Documentation</t>
+  </si>
+  <si>
+    <t>Warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD 11 </t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>no puede mandar oferta sin aprobación del KAM</t>
+  </si>
+  <si>
+    <t>BD 2</t>
+  </si>
+  <si>
+    <t>INCOTERMS_2012</t>
+  </si>
+  <si>
+    <t>INCOTERM</t>
+  </si>
+  <si>
+    <t>sólo uno</t>
+  </si>
+  <si>
+    <t>Delivery Place</t>
+  </si>
+  <si>
+    <t>localización de entrega de mercancía (no tiene porque coincidir con la ubicación del proyecto)</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Asistente de datos históricos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acrónimo </t>
+  </si>
+  <si>
+    <t>Puesta en marcha</t>
+  </si>
+  <si>
+    <t>multilínea</t>
+  </si>
+  <si>
+    <t>Binding Offer</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>crédito autorizado para esta oferta</t>
+  </si>
+  <si>
+    <t>oferta por debajo del CLU = autorización. Existirá un mecanismo para arrancar la actividad de solicitud de crédito. Cuando ésta finalice se actualizará auto.</t>
+  </si>
+  <si>
+    <t>Gestor Documental</t>
+  </si>
+  <si>
+    <t>vinculable a un código SAP</t>
+  </si>
+  <si>
+    <t>Legal Documentation</t>
+  </si>
+  <si>
+    <t>Oferta</t>
+  </si>
+  <si>
+    <t>Documentación del material en función del código SAP</t>
+  </si>
+  <si>
+    <t>Standard Country Warranty</t>
+  </si>
+  <si>
+    <t>Standard Worldwide Warranty</t>
+  </si>
+  <si>
+    <t>Extended Country Warranty</t>
+  </si>
+  <si>
+    <t>Extended Worldwide Warranty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aislada </t>
+  </si>
+  <si>
+    <t>integraciones</t>
+  </si>
+  <si>
+    <t>repuestos</t>
+  </si>
+  <si>
+    <t>conexión a red</t>
+  </si>
+  <si>
+    <t>cuando se definan las familias se les identificará la documentación de garantía correspondiente</t>
+  </si>
+  <si>
+    <t>WarrantyDocs</t>
+  </si>
+  <si>
+    <t>se usa el gestor documental. Permitirá añadir información adicional</t>
+  </si>
+  <si>
+    <t>el cuerpo de la oferta</t>
+  </si>
+  <si>
+    <t>Hay una documentación por defecto. Si se editan, tiene que ser autorizadas por el departamento Legal. Se entra al VTA.030.65</t>
+  </si>
+  <si>
+    <t>FECHAS OFERTA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Día en el que creemos que el cliente tomará una decisión.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="MS Sans Serif"/>
+      </rPr>
+      <t xml:space="preserve"> Flag. </t>
+    </r>
+  </si>
+  <si>
+    <t>Estimated Order Date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Día esperado para crear el pedido.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="MS Sans Serif"/>
+      </rPr>
+      <t xml:space="preserve"> Flag</t>
+    </r>
+  </si>
+  <si>
+    <t>listado</t>
+  </si>
+  <si>
+    <t>bd 1</t>
+  </si>
+  <si>
+    <t>auto desde SAP</t>
+  </si>
+  <si>
+    <t>cadena de texto</t>
+  </si>
+  <si>
+    <t>numérico</t>
+  </si>
+  <si>
+    <t>una letra para cada versión. Detrás del # SAP con un guión bajo "_"</t>
+  </si>
+  <si>
+    <t>por defecto sale el author</t>
+  </si>
+  <si>
+    <t>usuario crm</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Quotation Version</t>
+  </si>
+  <si>
+    <t>Estados de la oferta</t>
+  </si>
+  <si>
+    <t>Warranties</t>
+  </si>
+  <si>
+    <t>En espera de respuesta</t>
+  </si>
+  <si>
+    <t>Abierta</t>
+  </si>
+  <si>
+    <t>Se ha hecho una solicitud a algun otro departamento</t>
+  </si>
+  <si>
+    <t>Tareas en espera</t>
+  </si>
+  <si>
+    <t>Multilinea</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>Existirá una línea por cada tarea pendiente</t>
+  </si>
+  <si>
+    <t>Enviada</t>
+  </si>
+  <si>
+    <t>Perdida</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Numérico</t>
+  </si>
+  <si>
+    <t>Un asistente de ayuda describiendo que significan las probabilidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando el KAM marca la oferta como aceptada, la probabilidad sube al 99%. Maximo = 90%. 
+Los demás porcentajes cambian cuando cambia el estado. </t>
+  </si>
+  <si>
+    <t>LISTA DE MATERIALES</t>
+  </si>
+  <si>
+    <t>BD 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Product/Service</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Se puede importar la lista de materiales de cualquier otra oferta. Habrá un buscador de ofertas. Se eligirá que materiales encajar.</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Se permitirá dos formas de presentar:
+(i) Desglosado por producto o
+(ii) Sin desglosar</t>
+  </si>
+  <si>
+    <t>DOCUMENTOS</t>
+  </si>
+  <si>
+    <t>Al crear una oferta puede estar vinculada a un grupo de ofertas asociadas a un único forecast</t>
+  </si>
+  <si>
+    <t>Grouped Quotations</t>
+  </si>
+  <si>
+    <t>BD 5</t>
+  </si>
+  <si>
+    <t>Multivalor</t>
+  </si>
+  <si>
+    <t>Grupo Subtotal</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Entero</t>
+  </si>
+  <si>
+    <t>Divisa</t>
+  </si>
+  <si>
+    <t>Moneda</t>
+  </si>
+  <si>
+    <t>Discount Concept</t>
+  </si>
+  <si>
+    <t>Por ejemplo puede servir para explicar los descuentos aplicados</t>
+  </si>
+  <si>
+    <t>Discount Amount</t>
+  </si>
+  <si>
+    <t>dependerá de la TB de costes y márgenes (WIP);
+puede impactar la tarea de precio especial (VTA.030.40)</t>
+  </si>
+  <si>
+    <t>Offer End Comment</t>
+  </si>
+  <si>
+    <t>Este campo se habilitará cuando esta oferta se acepte o rechace</t>
+  </si>
+  <si>
+    <t>Obligatorio cuando esté habilitado</t>
+  </si>
+  <si>
+    <t>Quotation SAP Number</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>TB NumberOfDays</t>
+  </si>
+  <si>
+    <t>Quotation date</t>
+  </si>
+  <si>
+    <t>día en que se envía la oferta al cliente</t>
+  </si>
+  <si>
+    <t>auto de QL + QD</t>
+  </si>
+  <si>
+    <t>Quotation Lifetime</t>
   </si>
 </sst>
 </file>
@@ -195,12 +530,6 @@
       <name val="MS Sans Serif"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="MS Sans Serif"/>
@@ -209,6 +538,11 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="MS Sans Serif"/>
     </font>
   </fonts>
@@ -226,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -314,27 +648,60 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -347,12 +714,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -366,34 +727,157 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,384 +1183,1119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="36" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="38" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="11">
+        <v>255</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="11">
+        <v>150</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="11">
+        <v>150</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="11">
+        <v>50</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+    </row>
+    <row r="22" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22"/>
+      <c r="B24" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="22"/>
+      <c r="B25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="22"/>
+      <c r="B27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="22"/>
+      <c r="B30" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22"/>
+      <c r="B32" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:7" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="31"/>
+      <c r="B43" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="31"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="31"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="30"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B49" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="30"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="30"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="17">
-        <v>255</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="40"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="36"/>
+      <c r="B68" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="36"/>
+      <c r="B69" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="17">
-        <v>150</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="17">
-        <v>150</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="17">
-        <v>50</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="D69" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B70" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B72" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="G72" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="55"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="28"/>
+    </row>
+    <row r="80" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" s="42"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="42"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="42"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="54"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="42"/>
+    </row>
+    <row r="87" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B87" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="42"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A14:G14"/>
+  <mergeCells count="9">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A52:G52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DA/cap08-BasesDeDatos/IPT_ACRM_BD5_Ofertas_150414.xlsx
+++ b/DA/cap08-BasesDeDatos/IPT_ACRM_BD5_Ofertas_150414.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -342,9 +342,6 @@
     <t>Estados de la oferta</t>
   </si>
   <si>
-    <t>Warranties</t>
-  </si>
-  <si>
     <t>En espera de respuesta</t>
   </si>
   <si>
@@ -488,6 +485,9 @@
   </si>
   <si>
     <t>Quotation Lifetime</t>
+  </si>
+  <si>
+    <t>Warranty Documents+B66</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -738,12 +738,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -762,9 +756,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -828,9 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -840,24 +828,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,17 +867,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,24 +1179,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="36" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="36" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="2.42578125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="38" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1224,47 +1216,47 @@
       <c r="G1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="37"/>
-    </row>
-    <row r="2" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="37"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
       <c r="B5" s="10" t="s">
         <v>96</v>
       </c>
@@ -1276,10 +1268,10 @@
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1293,12 +1285,12 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>92</v>
@@ -1312,8 +1304,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:8" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1329,8 +1321,8 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:8" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:8" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1339,7 +1331,7 @@
       <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="12"/>
@@ -1350,8 +1342,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1360,19 +1352,19 @@
       <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>95</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:8" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1385,15 +1377,15 @@
         <v>52</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:8" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1404,33 +1396,33 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="16"/>
+    <row r="13" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+    </row>
+    <row r="15" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="10" t="s">
         <v>38</v>
@@ -1445,7 +1437,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10" t="s">
         <v>29</v>
@@ -1460,7 +1452,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10" t="s">
         <v>30</v>
@@ -1475,7 +1467,7 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10" t="s">
         <v>31</v>
@@ -1490,7 +1482,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
@@ -1511,28 +1503,28 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-    </row>
-    <row r="22" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="B21" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+    </row>
+    <row r="22" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>28</v>
@@ -1542,181 +1534,181 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:7" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="F23" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
       <c r="B24" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+    <row r="25" spans="1:7" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
       <c r="B25" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>132</v>
+        <v>117</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>131</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
+        <v>130</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
       <c r="B26" s="10"/>
       <c r="C26" s="12"/>
       <c r="D26" s="7"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
+    <row r="27" spans="1:7" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
       <c r="B27" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F27" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
+      <c r="B28" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>132</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
+        <v>130</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
       <c r="B29" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+    <row r="30" spans="1:7" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
       <c r="B30" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="7"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="26"/>
-    </row>
-    <row r="32" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-    </row>
-    <row r="33" spans="1:7" s="39" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
+      <c r="F30" s="18"/>
+      <c r="G30" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40" t="s">
+      <c r="F33" s="37"/>
+      <c r="G33" s="37" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="57"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -1733,7 +1725,7 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -1751,20 +1743,20 @@
     </row>
     <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1781,7 +1773,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1798,17 +1790,17 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="33" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6"/>
@@ -1816,89 +1808,89 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="30"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="25"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="59" t="s">
-        <v>103</v>
+      <c r="B48" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>57</v>
@@ -1906,38 +1898,38 @@
       <c r="D49" s="6"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="30"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
     </row>
     <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="57"/>
     </row>
     <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
@@ -2004,16 +1996,16 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="41" t="s">
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2028,7 +2020,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="6"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="40" t="s">
+      <c r="H59" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2045,7 +2037,7 @@
         <v>61</v>
       </c>
       <c r="G60" s="7"/>
-      <c r="H60" s="40"/>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B61" s="8" t="s">
@@ -2060,7 +2052,7 @@
       <c r="G61" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2075,7 +2067,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="6"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="40" t="s">
+      <c r="H62" s="37" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2090,37 +2082,37 @@
       <c r="E63" s="7"/>
       <c r="F63" s="6"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="40" t="s">
+      <c r="H63" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B66" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42" t="s">
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="39" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="36"/>
-      <c r="B68" s="29" t="s">
+    <row r="68" spans="1:7" s="36" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="33"/>
+      <c r="B68" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -2131,13 +2123,13 @@
         <v>70</v>
       </c>
       <c r="F68" s="11"/>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="39" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="36"/>
-      <c r="B69" s="29" t="s">
+    <row r="69" spans="1:7" s="36" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="33"/>
+      <c r="B69" s="26" t="s">
         <v>47</v>
       </c>
       <c r="C69" s="12" t="s">
@@ -2148,12 +2140,12 @@
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="11"/>
-      <c r="G69" s="20" t="s">
+      <c r="G69" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="12" t="s">
@@ -2162,36 +2154,36 @@
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="29" t="s">
+      <c r="G70" s="26" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="42" t="s">
+      <c r="E72" s="39"/>
+      <c r="F72" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G72" s="40" t="s">
-        <v>123</v>
+      <c r="G72" s="37" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B74" s="55" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C74" s="55"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="26" t="s">
         <v>71</v>
       </c>
       <c r="C75" s="12" t="s">
@@ -2199,7 +2191,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="26" t="s">
         <v>72</v>
       </c>
       <c r="C76" s="12" t="s">
@@ -2207,7 +2199,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="26" t="s">
         <v>73</v>
       </c>
       <c r="C77" s="12" t="s">
@@ -2215,7 +2207,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="26" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="12" t="s">
@@ -2223,33 +2215,33 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="28"/>
+      <c r="B79" s="25"/>
     </row>
     <row r="80" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="51" t="s">
+      <c r="B80" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C80" s="37" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="42"/>
+      <c r="C81" s="39"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C82" s="42"/>
+      <c r="C82" s="39"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C83" s="42"/>
+      <c r="C83" s="39"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="53" t="s">
@@ -2258,30 +2250,30 @@
       <c r="C85" s="54"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="52" t="s">
+      <c r="B86" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="39"/>
+    </row>
+    <row r="87" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B87" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="42"/>
-    </row>
-    <row r="87" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B87" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="39"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C88" s="42"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="42"/>
+      <c r="C89" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
